--- a/forms/bom/bom_download_xls.xlsx
+++ b/forms/bom/bom_download_xls.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>BOM MAINTENANCE</t>
   </si>
   <si>
-    <t>(DOWNLOAD DATE : 2020-11-06 08:37:15)</t>
+    <t>(DOWNLOAD DATE : 2021-01-05 14:29:47)</t>
   </si>
   <si>
     <t>UPPER_ITEM_NO</t>
@@ -80,76 +80,73 @@
     <t>SUBCON_SUPPLY</t>
   </si>
   <si>
-    <t>AM3L-B2D//ZULAB</t>
-  </si>
-  <si>
-    <t>SONY BLUE LR6 2B ULA V3</t>
+    <t>LR03(4B)FH-W-FI</t>
+  </si>
+  <si>
+    <t>FJ HIGH POWER EU LR03 4B</t>
+  </si>
+  <si>
+    <t>FI-4233130-2</t>
   </si>
   <si>
     <t>PC</t>
   </si>
   <si>
-    <t>BLISTER CARD</t>
-  </si>
-  <si>
-    <t>B CARD SONY BLUE LR6 2B ULA R1</t>
-  </si>
-  <si>
-    <t>INNER BOARD</t>
-  </si>
-  <si>
-    <t>INNER SONY BLUE LR6 2B ULA R1</t>
+    <t>TRIPLEK</t>
+  </si>
+  <si>
+    <t>TRIPLEK 70X110X3MM</t>
+  </si>
+  <si>
+    <t>PALLET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALLET ISPM C SIZE:120X80X15 </t>
+  </si>
+  <si>
+    <t>SUPPORT MATERIAL</t>
+  </si>
+  <si>
+    <t>PAPER ANGLE P1000X50X50XT3MM</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVC ROLL B FILM </t>
+  </si>
+  <si>
+    <t>PVC ROLL B FILM W440 L500</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>PLASTIC SHEET 1600 X 1500 CM</t>
+  </si>
+  <si>
+    <t>METAL LABEL</t>
+  </si>
+  <si>
+    <t>MLBL FJ HIGHPOWER PVC LR03N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B CARD </t>
+  </si>
+  <si>
+    <t>B CARD FJ HIGHPOWER LR03 4B R1</t>
+  </si>
+  <si>
+    <t>INNER</t>
+  </si>
+  <si>
+    <t>INNER FJ HIGHPOWER LR03 4B</t>
   </si>
   <si>
     <t>OUTER</t>
   </si>
   <si>
-    <t>OUTER SONY BLUE LR6 2B ULA</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>PET BLISTER FILM</t>
-  </si>
-  <si>
-    <t>PET BLISTER FILM PT200M</t>
-  </si>
-  <si>
-    <t>PALLET PAD SONY</t>
-  </si>
-  <si>
-    <t>PALLET PAD SONY (1100 X 1100)</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>SUPPORT MATERIAL</t>
-  </si>
-  <si>
-    <t>PLASTIC SHEET 1600 X 1500 CM</t>
-  </si>
-  <si>
-    <t>TRIPLEK</t>
-  </si>
-  <si>
-    <t>TRIPLEK 81X83X3MM</t>
-  </si>
-  <si>
-    <t>METAL LABEL</t>
-  </si>
-  <si>
-    <t>M LABEL SONY EUR PET LR6N R4</t>
-  </si>
-  <si>
-    <t>PAPER ANGLE P1000X50X50XT3MM</t>
-  </si>
-  <si>
-    <t>B CARD</t>
-  </si>
-  <si>
-    <t>B CARD SONY BLUE LR6 2B ULA R2</t>
+    <t>OUTER FJ HIGHPOWER LR03 4B</t>
   </si>
 </sst>
 </file>
@@ -514,10 +511,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,7 +593,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="2">
-        <v>11454</v>
+        <v>85050</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -604,21 +601,23 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2">
-        <v>2211479</v>
+        <v>2720007</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -626,17 +625,15 @@
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2">
         <v>1</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="2">
-        <v>2</v>
+        <v>28800</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -646,7 +643,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="2">
-        <v>11454</v>
+        <v>85050</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -654,21 +651,23 @@
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
-        <v>2212349</v>
+        <v>2710003</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -676,17 +675,15 @@
       <c r="M6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2">
         <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="2">
-        <v>24</v>
+        <v>28800</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -696,7 +693,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="2">
-        <v>11454</v>
+        <v>85050</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -704,21 +701,23 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2">
-        <v>2214363</v>
+        <v>2600026</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -726,17 +725,15 @@
       <c r="M7" s="2">
         <v>3</v>
       </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="2">
-        <v>96</v>
+        <v>28800</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -746,7 +743,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="2">
-        <v>11454</v>
+        <v>85050</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -754,21 +751,23 @@
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2">
-        <v>2250012</v>
+        <v>2600068</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -776,17 +775,15 @@
       <c r="M8" s="2">
         <v>4</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2">
         <v>1</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="2">
-        <v>158</v>
+        <v>128000</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -796,7 +793,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="2">
-        <v>11454</v>
+        <v>85050</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -804,39 +801,39 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2">
-        <v>2600192</v>
+        <v>2600007</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>6</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2">
         <v>1</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="2">
-        <v>9216</v>
+        <v>57600</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -846,7 +843,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="2">
-        <v>11454</v>
+        <v>85050</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -854,15 +851,17 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2">
-        <v>2600007</v>
+        <v>1241092</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>36</v>
@@ -874,19 +873,17 @@
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>7</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2">
         <v>1</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="2">
-        <v>46080</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -896,7 +893,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2">
-        <v>11454</v>
+        <v>85050</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -904,15 +901,17 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2">
-        <v>2720006</v>
+        <v>2111372</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>38</v>
@@ -924,19 +923,17 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>8</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2">
         <v>1</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="2">
-        <v>9216</v>
+        <v>4</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -946,7 +943,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="2">
-        <v>11454</v>
+        <v>85050</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -954,15 +951,17 @@
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2">
-        <v>1232100</v>
+        <v>2112254</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>40</v>
@@ -974,19 +973,17 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>9</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2">
         <v>1</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="2">
-        <v>11454</v>
+        <v>85050</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -1004,495 +1001,45 @@
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2">
-        <v>2600026</v>
+        <v>2114290</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>10</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="2">
-        <v>9216</v>
+        <v>640</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="2">
-        <v>11454</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2211524</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="2">
-        <v>11454</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2212349</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>24</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="2">
-        <v>11454</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2214363</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>3</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>96</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="2">
-        <v>11454</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2">
-        <v>2250012</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
-        <v>4</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>158</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="2">
-        <v>11454</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="2">
-        <v>2600192</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>6</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>9216</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="2">
-        <v>11454</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="2">
-        <v>2600007</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>7</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>46080</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="2">
-        <v>11454</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="2">
-        <v>2720006</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2">
-        <v>8</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>9216</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="2">
-        <v>11454</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1232100</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>9</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="2">
-        <v>11454</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2600026</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <v>10</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>4</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>9216</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
